--- a/biology/Zoologie/Albatros_de_Campbell/Albatros_de_Campbell.xlsx
+++ b/biology/Zoologie/Albatros_de_Campbell/Albatros_de_Campbell.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Thalassarche impavida
 L'Albatros de Campbell (Thalassarche impavida) est une espèce d'oiseaux de mer de taille moyenne de la famille des Diomedeidae (la famille des albatros).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ses principales différences avec l'Albatros à sourcils noirs sont les iris jaune miel (au lieu de sombres), l'extrémité du bec orangée (au lieu de rougeâtre), des sourcils noirs plus marqués et le dessous des ailes légèrement plus sombre.
 </t>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il se reproduit uniquement sur l'île Campbell et l'îlot voisin "Jeannette Marie", deux petites îles néozélandaises du sud de l'Océan Pacifique.
 </t>
@@ -574,7 +590,9 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est quelquefois considéré comme une sous espèce de l'Albatros à sourcils noirs.
 </t>
